--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/C3-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/C3-Itgam.xlsx
@@ -525,25 +525,25 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>34.739995</v>
+        <v>0.09665433333333333</v>
       </c>
       <c r="H2">
-        <v>104.219985</v>
+        <v>0.289963</v>
       </c>
       <c r="I2">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="J2">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,10 +552,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>57.20386266666666</v>
+        <v>0.01393633333333333</v>
       </c>
       <c r="N2">
-        <v>171.611588</v>
+        <v>0.041809</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>1987.261903020686</v>
+        <v>0.001347007007444444</v>
       </c>
       <c r="R2">
-        <v>17885.35712718618</v>
+        <v>0.012123063067</v>
       </c>
       <c r="S2">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="T2">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>154.8642143333333</v>
+        <v>154.8642143333334</v>
       </c>
       <c r="H3">
-        <v>464.592643</v>
+        <v>464.5926430000001</v>
       </c>
       <c r="I3">
-        <v>0.8145606273154508</v>
+        <v>0.9982544794956518</v>
       </c>
       <c r="J3">
-        <v>0.8145606273154506</v>
+        <v>0.9982544794956519</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,10 +614,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>57.20386266666666</v>
+        <v>0.01393633333333333</v>
       </c>
       <c r="N3">
-        <v>171.611588</v>
+        <v>0.041809</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>8858.83124870523</v>
+        <v>2.158239312354111</v>
       </c>
       <c r="R3">
-        <v>79729.48123834707</v>
+        <v>19.424153811187</v>
       </c>
       <c r="S3">
-        <v>0.8145606273154508</v>
+        <v>0.9982544794956518</v>
       </c>
       <c r="T3">
-        <v>0.8145606273154506</v>
+        <v>0.9982544794956519</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5157266666666667</v>
+        <v>0.174137</v>
       </c>
       <c r="H4">
-        <v>1.54718</v>
+        <v>0.522411</v>
       </c>
       <c r="I4">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="J4">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,10 +676,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>57.20386266666666</v>
+        <v>0.01393633333333333</v>
       </c>
       <c r="N4">
-        <v>171.611588</v>
+        <v>0.041809</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>29.50155741353777</v>
+        <v>0.002426831277666667</v>
       </c>
       <c r="R4">
-        <v>265.51401672184</v>
+        <v>0.021841481499</v>
       </c>
       <c r="S4">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="T4">
-        <v>0.002712638545526686</v>
+        <v>0.001122486825276316</v>
       </c>
     </row>
   </sheetData>
